--- a/Schablonen/RöntgenNormal.xlsx
+++ b/Schablonen/RöntgenNormal.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E0887F-960B-490D-A9D5-055721E004E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-28920" yWindow="2160" windowWidth="29040" windowHeight="15720" xr2:uid="{E9688302-5921-49C1-BE4B-315E9EEA5948}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj+kjOSyBD0cCTAHyZKWm7so94wAw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -52,6 +33,9 @@
     <t>Normal</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>Choice-Gruppe-ID</t>
   </si>
   <si>
@@ -70,6 +54,9 @@
     <t>Variable-Synonyme</t>
   </si>
   <si>
+    <t>Variable-Default</t>
+  </si>
+  <si>
     <t>Variable-Info</t>
   </si>
   <si>
@@ -178,12 +165,15 @@
     <t>mit Voraufnahmen vom %ADV2%. \n</t>
   </si>
   <si>
+    <t>Indikation geprüft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\nIndikation gemäß § 83, Abs. 3 StrlSchG geprüft. </t>
+  </si>
+  <si>
     <t>Block</t>
   </si>
   <si>
-    <t xml:space="preserve">\nIndikation gemäß § 83, Abs. 3 StrlSchG geprüft. </t>
-  </si>
-  <si>
     <t>\n\nInstrumentierung:\n</t>
   </si>
   <si>
@@ -277,6 +267,9 @@
     <t>2. Shaldon-Katheter</t>
   </si>
   <si>
+    <t>2. Shaldon-Katheter;weiterer Shaldon;weiterer Shaldon Katheter;zweiter Shaldon Katheter;zweiter Shaldon;2. Shaldon</t>
+  </si>
+  <si>
     <t>I10</t>
   </si>
   <si>
@@ -469,7 +462,7 @@
     <t>OP-Status</t>
   </si>
   <si>
-    <t>OP Status;Status der OP</t>
+    <t>OP Status;Status der OP;OP-Status</t>
   </si>
   <si>
     <t>I33</t>
@@ -478,12 +471,21 @@
     <t>Klappen-OP;ACB, ACVB</t>
   </si>
   <si>
+    <t>Klappen-OP;ACB, ACVB;ACB;ACVB</t>
+  </si>
+  <si>
     <t>mit ...</t>
   </si>
   <si>
     <t>Postoperativer Status [nach %I33%. ]</t>
   </si>
   <si>
+    <t>Art der Klappen-OP</t>
+  </si>
+  <si>
+    <t>Art der Klappen-OP;Art der Klappen OP</t>
+  </si>
+  <si>
     <t>I34</t>
   </si>
   <si>
@@ -526,6 +528,9 @@
     <t>kein PE</t>
   </si>
   <si>
+    <t>kein PE;kein Pleuraerguss</t>
+  </si>
+  <si>
     <t>gering,mäßig,deutlich</t>
   </si>
   <si>
@@ -538,6 +543,9 @@
     <t>gering</t>
   </si>
   <si>
+    <t>PE gering; geringer PE;Pleuraerguss gering; geringer Pleuraerguss</t>
+  </si>
+  <si>
     <t>PE1</t>
   </si>
   <si>
@@ -565,6 +573,9 @@
     <t>mäßig</t>
   </si>
   <si>
+    <t>PE mäßig; mäßiger PE;Pleuraerguss mäßig;mäßiger Pleuraerguss</t>
+  </si>
+  <si>
     <t>PE3</t>
   </si>
   <si>
@@ -580,6 +591,9 @@
     <t>deutlich</t>
   </si>
   <si>
+    <t>PE deutlich; deutlicher PE;Pleuraerguss deutlich; deutlicher Pleuraerguss</t>
+  </si>
+  <si>
     <t>PE5</t>
   </si>
   <si>
@@ -634,6 +648,9 @@
     <t>apikal / lateral / basal / ventral / mantelförmig</t>
   </si>
   <si>
+    <t>apikal/lateral/basal/ventral/mantelförmig</t>
+  </si>
+  <si>
     <t>P3</t>
   </si>
   <si>
@@ -664,6 +681,9 @@
     <t>gering/mäßig/deutlich</t>
   </si>
   <si>
+    <t>Mediastinalshift …</t>
+  </si>
+  <si>
     <t>Spannungspneumothorax</t>
   </si>
   <si>
@@ -760,6 +780,9 @@
     <t>Aorta unauffällig</t>
   </si>
   <si>
+    <t>elongiert,arteriosklerotisch,dilatiert</t>
+  </si>
+  <si>
     <t>Thorakale Aorta unauffällig konfiguriert.</t>
   </si>
   <si>
@@ -769,6 +792,9 @@
     <t>Aorta elongiert</t>
   </si>
   <si>
+    <t>unauffällilg</t>
+  </si>
+  <si>
     <t>arteriosklerotisch</t>
   </si>
   <si>
@@ -856,6 +882,9 @@
     <t>H1</t>
   </si>
   <si>
+    <t>beträgt …</t>
+  </si>
+  <si>
     <t xml:space="preserve">Die Herz-Thorax-Relation beträgt %H1%. </t>
   </si>
   <si>
@@ -913,6 +942,9 @@
     <t>Grad 1</t>
   </si>
   <si>
+    <t>pv Stau Grad 1;pv Stau 1;pv Stau Grad eins</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pulmonalvenöse Umverteilung mit dilatierten, scharf begrenzten Oberlappengefäßen (vaskuläre Kranialisation) und normalem Lungeninterstitium. </t>
   </si>
   <si>
@@ -922,6 +954,9 @@
     <t>Grad 2</t>
   </si>
   <si>
+    <t>pv Stau Grad 2;pv Stau 2;pv Stau Grad zwei</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mäßige Hypervolämie mit dilatierten, unscharf begrenzten Oberlappengefäßen und Bronchialmanschettenzeichen. </t>
   </si>
   <si>
@@ -931,6 +966,9 @@
     <t>Grad 3</t>
   </si>
   <si>
+    <t>pv Stau Grad 3;pv Stau 3;pv Stau Grad drei</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deutliche Hypervolämie mit zentral unscharf begrenzten Lungengefäßen, Bronchialmanschettenzeichen und vermehrter interstitieller Zeichnung einschließlich Kerley-Linien (interstitielles Lungenödem). </t>
   </si>
   <si>
@@ -940,6 +978,9 @@
     <t>Grad 4</t>
   </si>
   <si>
+    <t>pv Stau Grad 4;pv Stau 4;pv Stau Grad vier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Massive Hypervolämie mit zentral und peripher unscharf abgrenzbaren Lungengefäßen sowie deutlich vermehrt interstitieller und fleckförmiger Zeichnung (interstitelles und alveoläres Lungenödem). </t>
   </si>
   <si>
@@ -1144,6 +1185,9 @@
     <t>Z.n. CHE</t>
   </si>
   <si>
+    <t>CHE;Cholezystektomie;Cholecystektomie;Z.n. CHE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Z.n. CHE bei entsprechend projizierten OP-Clips im li. OB. </t>
   </si>
   <si>
@@ -1159,9 +1203,15 @@
     <t>FAL</t>
   </si>
   <si>
+    <t>FAL;freie abdominelle Luft</t>
+  </si>
+  <si>
     <t>O1</t>
   </si>
   <si>
+    <t>Lokalisation FAL …</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miterfasste FAL %O1% subdiaphragmal im OB. </t>
   </si>
   <si>
@@ -1189,6 +1239,9 @@
     <t>WT-Emphysem</t>
   </si>
   <si>
+    <t>Weichteil Emphysem;WT Emphysem;Weichteileemphysem;Weichteilemphysem</t>
+  </si>
+  <si>
     <t>W1</t>
   </si>
   <si>
@@ -1207,6 +1260,9 @@
     <t>weiteres WT-Emphysem</t>
   </si>
   <si>
+    <t>weiteres Weichteil Emphysem;weiteres WT Emphysem;weiteres Weichteileemphysem;weiteres Weichteilemphysem</t>
+  </si>
+  <si>
     <t>W4</t>
   </si>
   <si>
@@ -1304,108 +1360,34 @@
   </si>
   <si>
     <t>im ...</t>
-  </si>
-  <si>
-    <t>elongiert,arteriosklerotisch,dilatiert</t>
-  </si>
-  <si>
-    <t>unauffällilg</t>
-  </si>
-  <si>
-    <t>Indikation geprüft</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Variable-Default</t>
-  </si>
-  <si>
-    <t>2. Shaldon-Katheter;weiterer Shaldon;weiterer Shaldon Katheter;zweiter Shaldon Katheter;zweiter Shaldon;2. Shaldon</t>
-  </si>
-  <si>
-    <t>FAL;freie abdominelle Luft</t>
-  </si>
-  <si>
-    <t>CHE;Cholezystektomie;Cholecystektomie;Z.n. CHE</t>
-  </si>
-  <si>
-    <t>PE gering; geringer PE;Pleuraerguss gering; geringer Pleuraerguss</t>
-  </si>
-  <si>
-    <t>PE mäßig; mäßiger PE;Pleuraerguss mäßig;mäßiger Pleuraerguss</t>
-  </si>
-  <si>
-    <t>PE deutlich; deutlicher PE;Pleuraerguss deutlich; deutlicher Pleuraerguss</t>
-  </si>
-  <si>
-    <t>Klappen-OP;ACB, ACVB;ACB;ACVB</t>
-  </si>
-  <si>
-    <t>kein PE;kein Pleuraerguss</t>
-  </si>
-  <si>
-    <t>Art der Klappen-OP</t>
-  </si>
-  <si>
-    <t>Art der Klappen-OP;Art der Klappen OP</t>
-  </si>
-  <si>
-    <t>apikal/lateral/basal/ventral/mantelförmig</t>
-  </si>
-  <si>
-    <t>pv Stau Grad 1;pv Stau 1;pv Stau Grad eins</t>
-  </si>
-  <si>
-    <t>pv Stau Grad 2;pv Stau 2;pv Stau Grad zwei</t>
-  </si>
-  <si>
-    <t>pv Stau Grad 3;pv Stau 3;pv Stau Grad drei</t>
-  </si>
-  <si>
-    <t>pv Stau Grad 4;pv Stau 4;pv Stau Grad vier</t>
-  </si>
-  <si>
-    <t>Weichteil Emphysem;WT Emphysem;Weichteileemphysem;Weichteilemphysem</t>
-  </si>
-  <si>
-    <t>weiteres Weichteil Emphysem;weiteres WT Emphysem;weiteres Weichteileemphysem;weiteres Weichteilemphysem</t>
-  </si>
-  <si>
-    <t>Mediastinalshift …</t>
-  </si>
-  <si>
-    <t>beträgt …</t>
-  </si>
-  <si>
-    <t>Lokalisation FAL …</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1413,79 +1395,79 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -1509,113 +1491,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1756,47 +1644,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD863459-8DC2-4F08-8B8A-0734853F8245}">
-  <dimension ref="A1:P132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L126" sqref="L126"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="12" max="12" width="38.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="54" customWidth="1"/>
-    <col min="16" max="16" width="48.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.57"/>
+    <col customWidth="1" min="2" max="2" width="8.29"/>
+    <col customWidth="1" min="3" max="3" width="33.57"/>
+    <col customWidth="1" min="4" max="4" width="44.0"/>
+    <col customWidth="1" min="5" max="5" width="16.43"/>
+    <col customWidth="1" min="6" max="6" width="12.14"/>
+    <col customWidth="1" min="7" max="7" width="9.43"/>
+    <col customWidth="1" min="8" max="8" width="8.29"/>
+    <col customWidth="1" min="9" max="9" width="23.43"/>
+    <col customWidth="1" min="10" max="10" width="8.14"/>
+    <col customWidth="1" min="11" max="11" width="29.29"/>
+    <col customWidth="1" min="12" max="12" width="38.29"/>
+    <col customWidth="1" min="13" max="13" width="14.43"/>
+    <col customWidth="1" min="14" max="14" width="26.57"/>
+    <col customWidth="1" min="15" max="15" width="54.0"/>
+    <col customWidth="1" min="16" max="16" width="48.43"/>
+    <col customWidth="1" min="17" max="26" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1813,56 +1696,56 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1872,23 +1755,23 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1898,23 +1781,23 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1924,27 +1807,27 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1954,55 +1837,55 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2012,23 +1895,23 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2038,54 +1921,54 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>425</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>425</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2096,13 +1979,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2118,25 +2001,25 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2148,18 +2031,18 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2167,24 +2050,24 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2195,20 +2078,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2219,27 +2102,27 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2247,24 +2130,24 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2275,20 +2158,20 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2299,27 +2182,27 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2327,24 +2210,24 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2355,20 +2238,20 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2379,27 +2262,27 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>428</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2407,24 +2290,24 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2435,20 +2318,20 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2459,27 +2342,27 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2487,24 +2370,24 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2515,27 +2398,27 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2543,24 +2426,24 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2571,27 +2454,27 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2599,24 +2482,24 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2627,27 +2510,27 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2655,24 +2538,24 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2683,27 +2566,27 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2711,29 +2594,29 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2741,29 +2624,29 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2771,29 +2654,29 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2801,22 +2684,22 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2827,27 +2710,27 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2855,24 +2738,24 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2883,20 +2766,20 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2907,27 +2790,27 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2935,22 +2818,22 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2961,22 +2844,22 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2987,22 +2870,22 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3013,27 +2896,27 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3041,31 +2924,31 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>436</v>
+        <v>154</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>437</v>
+        <v>155</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3073,29 +2956,29 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3103,22 +2986,22 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3129,22 +3012,22 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3160,77 +3043,77 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>435</v>
+        <v>170</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="5" t="s">
-        <v>164</v>
+      <c r="O50" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>431</v>
+        <v>175</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3241,54 +3124,54 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="M52" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M52" s="6"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="5"/>
+      <c r="O52" s="6"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>432</v>
+        <v>185</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="5" t="s">
-        <v>177</v>
+      <c r="O53" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3299,54 +3182,54 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="5"/>
+      <c r="O54" s="6"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>433</v>
+        <v>191</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="5" t="s">
-        <v>182</v>
+      <c r="O55" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3357,22 +3240,22 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="5"/>
+      <c r="O56" s="6"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3388,29 +3271,29 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3420,47 +3303,47 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3471,20 +3354,20 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3495,54 +3378,54 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3553,20 +3436,20 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3577,56 +3460,56 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3637,20 +3520,20 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3661,24 +3544,24 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3694,29 +3577,29 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3724,83 +3607,83 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3809,7 +3692,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3818,29 +3701,29 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3848,27 +3731,27 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>424</v>
+        <v>258</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3876,27 +3759,27 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>424</v>
+        <v>258</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -3904,49 +3787,49 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>424</v>
+        <v>258</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3957,36 +3840,36 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3996,23 +3879,23 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4022,25 +3905,25 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4050,23 +3933,23 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4076,18 +3959,18 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="P81" s="1"/>
     </row>
-    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4095,24 +3978,24 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1" t="s">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4128,27 +4011,27 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="P83" s="1"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -4158,23 +4041,23 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="P84" s="1"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -4184,23 +4067,23 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -4210,27 +4093,27 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="P86" s="1"/>
     </row>
-    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -4240,25 +4123,25 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>439</v>
+        <v>307</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -4268,25 +4151,25 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>440</v>
+        <v>312</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4296,25 +4179,25 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>441</v>
+        <v>316</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -4324,25 +4207,25 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>442</v>
+        <v>320</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -4352,15 +4235,15 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4369,7 +4252,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -4378,28 +4261,28 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="P92" s="1"/>
     </row>
-    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -4408,24 +4291,24 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="P93" s="1"/>
     </row>
-    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -4434,24 +4317,24 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="P94" s="1"/>
     </row>
-    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -4460,22 +4343,22 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="P95" s="1"/>
     </row>
-    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4483,24 +4366,24 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4511,20 +4394,20 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
     </row>
-    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4535,27 +4418,27 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -4563,24 +4446,24 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4591,34 +4474,34 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4628,47 +4511,47 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4679,20 +4562,20 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4703,54 +4586,54 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
-    <row r="105" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4761,20 +4644,20 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4785,20 +4668,20 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4809,32 +4692,32 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
     </row>
-    <row r="109" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -4844,15 +4727,15 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4868,29 +4751,29 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="P110" s="1"/>
     </row>
-    <row r="111" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -4898,25 +4781,25 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="P111" s="1"/>
     </row>
-    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -4924,25 +4807,25 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="P112" s="1"/>
     </row>
-    <row r="113" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -4950,51 +4833,51 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="1" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5010,29 +4893,29 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="P115" s="1"/>
     </row>
-    <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -5040,45 +4923,45 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="P116" s="1"/>
     </row>
-    <row r="117" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5089,20 +4972,20 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5113,54 +4996,54 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5171,20 +5054,20 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5195,22 +5078,22 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5226,13 +5109,13 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5241,7 +5124,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -5250,25 +5133,25 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="P124" s="1"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5280,75 +5163,75 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="P125" s="1"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="P126" s="1"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="P127" s="1"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5359,52 +5242,52 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="P129" s="1"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5415,27 +5298,27 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -5443,26 +5326,26 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5473,223 +5356,891 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
     </row>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B662EE53BAED864D9E45A03F917DD171" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0b478698d34ba6ea8d28dcb235cef59d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac726c7a-29b1-4eed-9efa-e398fb837db4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bae4f718acc166ce461856f4d6d984a" ns3:_="">
-    <xsd:import namespace="ac726c7a-29b1-4eed-9efa-e398fb837db4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ac726c7a-29b1-4eed-9efa-e398fb837db4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1CA99AA-BB55-4566-A33D-E268FF599705}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac726c7a-29b1-4eed-9efa-e398fb837db4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368DB8FB-3FF0-4C81-B088-BE74BE0C63EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC27FD34-7D59-4F13-870A-01667C34E6ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ac726c7a-29b1-4eed-9efa-e398fb837db4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Schablonen/RöntgenNormal.xlsx
+++ b/Schablonen/RöntgenNormal.xlsx
@@ -267,7 +267,7 @@
     <t>2. Shaldon-Katheter</t>
   </si>
   <si>
-    <t>2. Shaldon-Katheter;weiterer Shaldon;weiterer Shaldon Katheter;zweiter Shaldon Katheter;zweiter Shaldon;2. Shaldon</t>
+    <t>2. Shaldon-Katheter;weiterer Shaldon;weiterer Shaldon Katheter;zweiter Shaldon Katheter;zweiter Shaldon-Katheter;zweiter Shaldon;2. Shaldon</t>
   </si>
   <si>
     <t>I10</t>
@@ -816,7 +816,7 @@
     <t>Aorta asc. / Aorta desc.</t>
   </si>
   <si>
-    <t>asc/desc</t>
+    <t>asc;Aorta ascendens/desc;Aorta descendens</t>
   </si>
   <si>
     <t>im Bereich der ...</t>
@@ -1423,6 +1423,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1431,9 +1434,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -2281,7 +2281,7 @@
       <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="1"/>
@@ -2599,10 +2599,10 @@
       <c r="K33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="3"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
         <v>110</v>
@@ -2629,10 +2629,10 @@
       <c r="K34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" s="3"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
         <v>113</v>
@@ -2686,13 +2686,13 @@
       <c r="J36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" s="3"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
         <v>121</v>
@@ -2838,8 +2838,8 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2864,15 +2864,15 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="5" t="s">
         <v>141</v>
       </c>
       <c r="L43" s="1" t="s">
@@ -2915,7 +2915,7 @@
       <c r="C45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E45" s="1"/>
@@ -3098,7 +3098,7 @@
       <c r="J51" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="3" t="s">
         <v>177</v>
       </c>
       <c r="L51" s="1" t="s">
@@ -3156,7 +3156,7 @@
       <c r="J53" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="3" t="s">
         <v>177</v>
       </c>
       <c r="L53" s="1" t="s">
@@ -3184,7 +3184,7 @@
       <c r="J54" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="3" t="s">
         <v>182</v>
       </c>
       <c r="L54" s="1" t="s">
@@ -3214,7 +3214,7 @@
       <c r="J55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="3" t="s">
         <v>177</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -3242,7 +3242,7 @@
       <c r="J56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="3" t="s">
         <v>182</v>
       </c>
       <c r="L56" s="1" t="s">
@@ -3815,7 +3815,7 @@
       <c r="K76" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="2" t="s">
         <v>266</v>
       </c>
       <c r="M76" s="1"/>

--- a/Schablonen/RöntgenNormal.xlsx
+++ b/Schablonen/RöntgenNormal.xlsx
@@ -231,7 +231,7 @@
     <t>2. ZVK</t>
   </si>
   <si>
-    <t>2. ZVK;weiterer ZVK;zweiter ZVK</t>
+    <t>2. ZVK;weiterer ZVK;zweiter ZVK;zweites ZVK</t>
   </si>
   <si>
     <t>I4</t>
@@ -876,7 +876,7 @@
     <t>Herz-Thorax-Quotient</t>
   </si>
   <si>
-    <t>Herz Thorax Quotient;HTQ;HT Quotient;Herz-Thorax-Quotient</t>
+    <t>Herz Thorax Quotient;HTQ;HT Quotient;Herz-Thorax-Quotient;Herz Thoraxquotient</t>
   </si>
   <si>
     <t>H1</t>
@@ -1203,7 +1203,7 @@
     <t>FAL</t>
   </si>
   <si>
-    <t>FAL;freie abdominelle Luft</t>
+    <t>FAL;freie abdominelle Luft;freie abdominale Luft</t>
   </si>
   <si>
     <t>O1</t>
@@ -1227,7 +1227,7 @@
     <t>WT normal</t>
   </si>
   <si>
-    <t>WT normal;Weichteile normal</t>
+    <t>WT normal;Weichteile normal;WT-normal</t>
   </si>
   <si>
     <t>WT-Emphysem,weiteres WT-Emphysem</t>
@@ -1239,7 +1239,7 @@
     <t>WT-Emphysem</t>
   </si>
   <si>
-    <t>Weichteil Emphysem;WT Emphysem;Weichteileemphysem;Weichteilemphysem</t>
+    <t>Weichteil Emphysem;WT Emphysem;Weichteileemphysem;Weichteilemphysem;Weichteil-Emphysem;WT-Emphysem</t>
   </si>
   <si>
     <t>W1</t>
@@ -1260,7 +1260,7 @@
     <t>weiteres WT-Emphysem</t>
   </si>
   <si>
-    <t>weiteres Weichteil Emphysem;weiteres WT Emphysem;weiteres Weichteileemphysem;weiteres Weichteilemphysem</t>
+    <t>weiteres Weichteil Emphysem;weiteres WT Emphysem;weiteres Weichteileemphysem;weiteres Weichteilemphysem;weiteres WT-Emphysem</t>
   </si>
   <si>
     <t>W4</t>
@@ -2121,7 +2121,7 @@
       <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="1"/>
@@ -3969,7 +3969,7 @@
       <c r="C82" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>286</v>
       </c>
       <c r="E82" s="1"/>
@@ -4845,7 +4845,7 @@
       <c r="C114" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>395</v>
       </c>
       <c r="E114" s="1"/>
@@ -4905,7 +4905,7 @@
       <c r="C116" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>403</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -4933,7 +4933,7 @@
       <c r="C117" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>407</v>
       </c>
       <c r="E117" s="1"/>
@@ -5015,7 +5015,7 @@
       <c r="C120" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E120" s="1"/>
